--- a/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
+++ b/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t xml:space="preserve">Test new project</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">jihknmk</t>
   </si>
   <si>
+    <t xml:space="preserve">Saturday, 29 June 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">hbhbjbnjnj</t>
   </si>
   <si>
@@ -53,75 +56,87 @@
     <t xml:space="preserve">sadd</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuesday, 25 June 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wewqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 04 June 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, 12 June 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobita, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taskgroup01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3432423ewrwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin, HoanLeader, HoanTester, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34234234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task group 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12321wwqeqw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thursday, 27 June 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">sadsad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wewqe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskgroup01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday, 29 June 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3432423ewrwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">werwer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin, HoanLeader, HoanTester, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34234234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asasasas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task232qwe</t>
-  </si>
-  <si>
     <t xml:space="preserve">HoanTester, </t>
   </si>
   <si>
-    <t xml:space="preserve">qweqweqwewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wewqee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sasasas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12321wwqeqw</t>
-  </si>
-  <si>
     <t xml:space="preserve">qweqwe</t>
   </si>
   <si>
@@ -140,34 +155,10 @@
     <t xml:space="preserve">123213weqwq</t>
   </si>
   <si>
-    <t xml:space="preserve">dfssdfds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3324423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qwewqe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weqewqe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsadsad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSQW1221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aeAS</t>
+    <t xml:space="preserve">sdsdsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsd</t>
   </si>
   <si>
     <t xml:space="preserve">Project name</t>
@@ -179,10 +170,10 @@
     <t xml:space="preserve">Task name</t>
   </si>
   <si>
-    <t xml:space="preserve">DueDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member names</t>
+    <t xml:space="preserve">Due date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned members</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -247,9 +238,9 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
@@ -257,31 +248,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -323,10 +314,12 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -335,7 +328,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -346,14 +339,14 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -362,7 +355,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -373,12 +366,14 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5"/>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -387,7 +382,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -395,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -403,20 +398,18 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -424,15 +417,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -441,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -449,26 +446,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8"/>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -476,15 +475,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9"/>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>31</v>
       </c>
@@ -492,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -503,15 +500,17 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10"/>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -520,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -528,17 +527,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
         <v>36</v>
       </c>
@@ -549,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -557,15 +552,19 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -574,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -582,26 +581,24 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13"/>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -609,26 +606,26 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -636,15 +633,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -653,57 +650,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
+++ b/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">

--- a/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
+++ b/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t xml:space="preserve">Test new project</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Sunday, 30 June 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">admin, HoanLeader, </t>
+    <t xml:space="preserve">admin, HoanLeader</t>
   </si>
   <si>
     <t xml:space="preserve">ASDSAA</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">jihknmk</t>
   </si>
   <si>
-    <t xml:space="preserve">Saturday, 29 June 2019</t>
+    <t xml:space="preserve">Friday, 30 August 2019</t>
   </si>
   <si>
     <t xml:space="preserve">hbhbjbnjnj</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">sadd</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuesday, 25 June 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">sadsad</t>
   </si>
   <si>
@@ -74,19 +71,13 @@
     <t xml:space="preserve">asd</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuesday, 04 June 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">assadasd</t>
   </si>
   <si>
     <t xml:space="preserve">dsadasd</t>
   </si>
   <si>
-    <t xml:space="preserve">Wednesday, 12 June 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobita, </t>
+    <t xml:space="preserve">Nobita</t>
   </si>
   <si>
     <t xml:space="preserve">asdasd</t>
@@ -98,6 +89,9 @@
     <t xml:space="preserve">task122</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuesday, 30 July 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">1111111</t>
   </si>
   <si>
@@ -113,7 +107,7 @@
     <t xml:space="preserve">232131</t>
   </si>
   <si>
-    <t xml:space="preserve">admin, HoanLeader, HoanTester, </t>
+    <t xml:space="preserve">admin, HoanLeader, HoanTester</t>
   </si>
   <si>
     <t xml:space="preserve">34234234</t>
@@ -131,10 +125,7 @@
     <t xml:space="preserve">12321wwqeqw</t>
   </si>
   <si>
-    <t xml:space="preserve">Thursday, 27 June 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoanTester, </t>
+    <t xml:space="preserve">HoanTester</t>
   </si>
   <si>
     <t xml:space="preserve">qweqwe</t>
@@ -149,7 +140,7 @@
     <t xml:space="preserve">QWE21</t>
   </si>
   <si>
-    <t xml:space="preserve">HoanLeader, </t>
+    <t xml:space="preserve">HoanLeader</t>
   </si>
   <si>
     <t xml:space="preserve">123213weqwq</t>
@@ -159,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">sdsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday, 17 June 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Project name</t>
@@ -238,8 +232,8 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -248,31 +242,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -342,11 +336,11 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -355,7 +349,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -366,14 +360,14 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -382,7 +376,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -393,14 +387,14 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -409,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -420,17 +414,17 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -438,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -446,19 +440,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -467,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -475,15 +469,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9"/>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -492,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -500,18 +496,20 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
@@ -519,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -527,15 +525,17 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11"/>
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -552,20 +552,20 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -581,15 +581,17 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13"/>
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -598,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -606,17 +608,19 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14"/>
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -633,15 +637,17 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15"/>
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -650,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
+++ b/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t xml:space="preserve">Test new project</t>
   </si>
@@ -23,138 +23,222 @@
     <t xml:space="preserve">2323saww</t>
   </si>
   <si>
+    <t xml:space="preserve">Monday, 15 April 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunday, 30 June 2019</t>
   </si>
   <si>
+    <t xml:space="preserve">admin, HoanLeader, Suka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jihknmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday, 15 June 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday, 30 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbhbjbnjnj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday, 11 February 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday, 16 May 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">admin, HoanLeader</t>
   </si>
   <si>
-    <t xml:space="preserve">ASDSAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
+    <t xml:space="preserve">sadsad</t>
   </si>
   <si>
     <t xml:space="preserve">High</t>
   </si>
   <si>
-    <t xml:space="preserve">jihknmk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday, 30 August 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hbhbjbnjnj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsad</t>
+    <t xml:space="preserve">123213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wewqe</t>
   </si>
   <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
-    <t xml:space="preserve">123213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wewqe</t>
+    <t xml:space="preserve">taskgroup01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3432423ewrwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin, HoanLeader, HoanTester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34234234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2312 efdsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teskTask123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weqwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfdsfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task group 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12321wwqeqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoanTester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qweqwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erwerew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werwerew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QWE21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoanLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123213weqwq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2323saww12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDDCCXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, 17 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday, 25 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoanLeader, HoanTester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdasdsdsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 09 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 16 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 12323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSFCCSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 30 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasdasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 02 July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSXAXXA</t>
   </si>
   <si>
     <t xml:space="preserve">asd</t>
   </si>
   <si>
+    <t xml:space="preserve">Friday, 15 March 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">assadasd</t>
   </si>
   <si>
-    <t xml:space="preserve">dsadasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskgroup01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday, 30 July 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3432423ewrwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">werwer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin, HoanLeader, HoanTester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34234234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task group 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12321wwqeqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoanTester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qweqwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erwerew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">werwerew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QWE21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoanLeader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123213weqwq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdsdsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday, 17 June 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project name</t>
   </si>
   <si>
@@ -164,6 +248,9 @@
     <t xml:space="preserve">Task name</t>
   </si>
   <si>
+    <t xml:space="preserve">Start date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Due date</t>
   </si>
   <si>
@@ -171,9 +258,6 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marked</t>
   </si>
   <si>
     <t xml:space="preserve">Completed</t>
@@ -232,41 +316,41 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
@@ -311,18 +395,18 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3"/>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -333,23 +417,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4"/>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -360,23 +446,23 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -384,26 +470,26 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -411,28 +497,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -440,28 +526,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -469,26 +549,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -496,28 +572,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
         <v>32</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -525,26 +595,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -552,28 +618,28 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -581,26 +647,26 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -608,28 +674,28 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -637,26 +703,269 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
         <v>46</v>
       </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
+++ b/PMTool16Bit_Core/src/PMTool16Bit.Web.Host/Download/ProjectTasks.xlsx
@@ -12,60 +12,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">TestNewProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DummyGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DummyTask1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday, 17 July 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday, 20 July 2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Project SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday, 08 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday, 12 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, 14 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 20 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze team members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday, 13 August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin, Sukatester</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwqwqw fdfdd fdfdf dfdfa asdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummytask3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medium</t>
   </si>
   <si>
-    <t xml:space="preserve">Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DummyTask2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday, 21 July 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday, 26 July 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoanLeader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DummyGroup 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummytask3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday, 02 August 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday, 08 August 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
+    <t xml:space="preserve">Dummytask4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummytask5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allocating resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, 04 September 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, 18 September 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han Hoan</t>
   </si>
   <si>
     <t xml:space="preserve">Project name</t>
@@ -142,44 +166,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="213.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -205,9 +229,7 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -217,19 +239,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3"/>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -241,25 +261,119 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="I4"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
